--- a/src/Rapport Tarif.xlsx
+++ b/src/Rapport Tarif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,12 +509,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>813250</t>
+          <t>254616</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>C27</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Courgettes / Vrac 9 kg / Cat. I / Espagne</t>
+          <t>Tomates Cerises / Barquettes 12x250 g / Cat. I / France</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -541,17 +541,17 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>20</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -569,7 +569,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>101913</t>
+          <t>102981</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -584,7 +584,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Poivrons Jaunes / Vrac 5 kg / GG-A (90-110 mm) / Cat. I / Espagne</t>
+          <t>Pomme Jazz™ / 1 rang 4,5 kg / 18 (201-240 g) / Cat. I / France</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -601,17 +601,17 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -629,12 +629,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>120956</t>
+          <t>377622</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Poivrons Rouges / Vrac 5 kg / GG-B (80-100 mm) / Cat. I / Espagne</t>
+          <t>Fraises / Barquettes 8x500 g / Cat. I / Belgique</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -661,17 +661,17 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>753913</t>
+          <t>101572</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -704,7 +704,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Poireau / Vrac 5 kg / Cat. I / France</t>
+          <t>Nectarines Blanches / Vrac 4 kg / A (67-73 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -721,17 +721,17 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>18</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>043935</t>
+          <t>100378</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Limes / Citrons verts / Vrac 48 pcs - 4,5 kg / Cat. I / Brésil</t>
+          <t>Nectarines Jaunes / Vrac 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -781,17 +781,17 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>22</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tomates Allongées / Roma / Vrac 6 kg / Cat. I / Belgique</t>
+          <t>Tomates Allongées / Roma / Vrac 6 kg / Cat. I / Pays-Bas</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -841,17 +841,17 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>120958</t>
+          <t>121954</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Poivrons Verts / Vrac 5 kg / GG-B (80-100 mm) / Cat. I / Espagne</t>
+          <t>Concombres / Vrac 12 pcs - 6,6 kg / 12M (400-500 g) / Cat. I / Pays-Bas</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -901,17 +901,17 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>30</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>011437</t>
+          <t>021311</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Melons / Vrac 15 pcs - 11 kg / 15L (650-800 g) / Cat. I / Espagne</t>
+          <t>Choux Rouges / Vrac 6 pcs - 10 kg / Cat. I / Portugal</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -961,17 +961,17 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>099851</t>
+          <t>099505</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Abricot / Plateau 5 kg / AA (45-49 mm) / Cat. I / Espagne</t>
+          <t>Pomme Royal Gala / 1 rang 4,5 kg / 16 F (230-270 g) / Cat. I / France</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1021,17 +1021,17 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1,80</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>377622</t>
+          <t>135788</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1064,7 +1064,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Fraises / Barquettes 8x500 g / Cat. I / Pays-Bas</t>
+          <t>Pomme Pink Lady® / Vrac 4,5 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1081,17 +1081,17 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2,97</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>123223</t>
+          <t>146515</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1124,7 +1124,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tomates Charnues / Vrac 7 kg / 8G (77-82 mm) / Cat. I / France</t>
+          <t>Pomme Chantecler / 1 rang 4,5 kg / 16 (230-270 g) / Cat. I / France</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1141,17 +1141,17 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1169,12 +1169,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>062765</t>
+          <t>117147</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1184,7 +1184,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Myrtilles / Barquettes 12x125 g / Cat. I / Maroc</t>
+          <t>Patates douces / Vrac 6 kg / L1 (300-450g) / Cat. I / Egypte</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1201,17 +1201,17 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0,90</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1229,12 +1229,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>116648</t>
+          <t>011302</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C40</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tomates Mélangées / Vrac 3,5 kg / Cat. I / France</t>
+          <t>Melons Charentais / - 12 pcs - 10 kg / 12L (800-950 g) / Cat. I / France</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1261,17 +1261,17 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>081823</t>
+          <t>099702</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Carottes / Vrac 12 kg / Cat. I / Portugal</t>
+          <t>Pêches Jaunes / Vrac 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1321,17 +1321,17 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1349,7 +1349,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>080066</t>
+          <t>102151</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Oranges feuilles / Vrac 10,5 kg / 2 / Cat. I / Portugal</t>
+          <t>Pêches Blanches / Plateau 4,5 kg / A 26 / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1381,17 +1381,17 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1409,12 +1409,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>031285</t>
+          <t>753916</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>C40</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ananas Extra Sweet / Vrac 8 pcs - 12 kg / A8 (1500-1800 g) / Cat. I / Costra Rica</t>
+          <t>Poireau / Vrac 10 kg / Cat. I / Belgique</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1441,17 +1441,17 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>2,60</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1469,7 +1469,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>098830</t>
+          <t>120183</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1484,7 +1484,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Citrons / Vrac 7 kg / 3/35 (62-72 mm) / Cat. I / Espagne</t>
+          <t>Aubergines / Vrac 5 kg / M (300-400 g) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1501,17 +1501,17 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1529,7 +1529,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>161373</t>
+          <t>031653</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1544,7 +1544,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Oignons Cébette / Vrac 14 pcs - 2,5 kg / Cat. I / Egypte</t>
+          <t>Carottes (fanes) / Bottes 12x667 g / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1561,17 +1561,17 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>1,33</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>146503</t>
+          <t>081823</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Pomme Boskoop / Vrac 9 kg / Cat. I / Pays-Bas</t>
+          <t>Carottes / Vrac 12 kg / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1621,17 +1621,17 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1649,7 +1649,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>116633</t>
+          <t>021471</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1664,7 +1664,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tomates cocktail / Vrac 3,5 kg / Cat. I / France</t>
+          <t>Choux Blancs / Vrac 6 pcs - 13 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1681,17 +1681,17 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1709,7 +1709,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>102981</t>
+          <t>813321</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1724,7 +1724,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Pomme Jazz™ / 1 rang 4,5 kg / 18 (201-240 g) / Cat. I / France</t>
+          <t>Courgettes / Vrac 9 kg / M (14-21 cm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1741,17 +1741,17 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>182953</t>
+          <t>086297</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1784,7 +1784,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Framboises / Barquettes 12x125 g / Cat. I / Maroc</t>
+          <t>Radis Rose / Bottes 12x400 g / Cat. I / France</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>120230</t>
+          <t>122546</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tomates Côtelées Noires / Vrac 3,5 kg / Cat. I / France</t>
+          <t>Tomates grappe / Vrac 10 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1861,17 +1861,17 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>103103</t>
+          <t>120183</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1899,12 +1899,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tomates Jaunes Ananas / Vrac 3,5 kg / Cat. I / France</t>
+          <t>Aubergines / Vrac 5 kg / M (300-400 g) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1921,17 +1921,17 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>120237</t>
+          <t>103232</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1959,12 +1959,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tomates Marmande / Vrac 3,5 kg / Cat. I / France</t>
+          <t>Cerises Burlat / Vrac 5 kg / 20-22 mm / Cat. I / France</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1981,17 +1981,17 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>9,54</t>
         </is>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>101572</t>
+          <t>813321</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2019,12 +2019,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Nectarines Blanches / Vrac 4 kg / A (67-73 mm) / Cat. I / Espagne</t>
+          <t>Courgettes / Vrac 9 kg / M (14-21 cm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2041,17 +2041,17 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2069,7 +2069,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>100378</t>
+          <t>121954</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2079,12 +2079,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Nectarines Jaunes / Vrac 4 kg / A (67-73 mm) / Cat. I / Espagne</t>
+          <t>Concombres / Vrac 12 pcs - 6,6 kg / 12M (400-500 g) / Cat. I / Pays-Bas</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2101,17 +2101,17 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>65</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>120183</t>
+          <t>136825</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2139,12 +2139,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Aubergines / Vrac 5 kg / M (300-400 g) / Cat. I / Espagne</t>
+          <t>Kiwi Jaunes / Vrac 52 pcs - 5,7 kg / 33 (85-95g) / Cat. I / Nouvelle-Zélande</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2161,17 +2161,17 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2189,7 +2189,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>102253</t>
+          <t>117147</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2199,12 +2199,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Brocolis / Vrac 6 kg / Cat. I / Espagne</t>
+          <t>Patates douces / Vrac 6 kg / L1 (300-450g) / Cat. I / Egypte</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2221,17 +2221,17 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2249,7 +2249,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>121954</t>
+          <t>132981</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2259,12 +2259,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Concombres / Vrac 12 pcs - 6,6 kg / 12M (400-500 g) / Cat. I / Pays-Bas</t>
+          <t>Kiwi / Plateau 30 pcs - 3 kg / 27 (105-115g) / Cat. I / France</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2281,17 +2281,17 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2309,7 +2309,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>855766</t>
+          <t>182953</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2319,12 +2319,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Pastèque / Vrac 6 pcs - 16 kg / 6 (3-4 kg) / Cat. I / Espagne</t>
+          <t>Framboises / Barquettes 12x125 g / Cat. I / Maroc</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2341,17 +2341,17 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>25</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2369,7 +2369,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>122546</t>
+          <t>100304</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -2379,12 +2379,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Tomates grappe / Vrac 10 kg / Cat. I / France</t>
+          <t>Pêches plates Blanches / Vrac 5 kg / A (67-73 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2401,17 +2401,17 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2429,7 +2429,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>099702</t>
+          <t>102151</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2439,12 +2439,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Pêches Jaunes / Vrac 4 kg / A 26 / Cat. I / Espagne</t>
+          <t>Pêches Blanches / Plateau 4,5 kg / A 26 / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2461,17 +2461,17 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2489,7 +2489,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>086297</t>
+          <t>031551</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2499,12 +2499,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Radis Rose / Bottes 12x400 g / Cat. I / France</t>
+          <t>Fruit de la passion / Vrac 36 pcs - 2 kg / Cat. I / Colombie</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2521,17 +2521,17 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>120183</t>
+          <t>116632</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2564,7 +2564,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Aubergines / Vrac 5 kg / M (300-400 g) / Cat. I / Espagne</t>
+          <t>Tomates Allongées / Roma / Vrac 6 kg / Cat. I / Pays-Bas</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2581,17 +2581,17 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2609,12 +2609,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>031285</t>
+          <t>122546</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>C40</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2624,7 +2624,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Ananas Extra Sweet / Vrac 8 pcs - 12 kg / A8 (1500-1800 g) / Cat. I / Costra Rica</t>
+          <t>Tomates grappe / Vrac 10 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2641,17 +2641,17 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>50</t>
         </is>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2669,7 +2669,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>102253</t>
+          <t>120237</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2684,7 +2684,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Brocolis / Vrac 6 kg / Cat. I / Espagne</t>
+          <t>Tomates Marmande / Vrac 3,5 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2701,17 +2701,17 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>121954</t>
+          <t>120230</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2744,7 +2744,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Concombres / Vrac 12 pcs - 6,6 kg / 12M (400-500 g) / Cat. I / Pays-Bas</t>
+          <t>Tomates Côtelées Noires / Vrac 3,5 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2761,17 +2761,17 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>12</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -2789,12 +2789,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>813250</t>
+          <t>103103</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>C27</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Courgettes / Vrac 9 kg / Cat. I / Espagne</t>
+          <t>Tomates Jaunes Ananas / Vrac 3,5 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2821,17 +2821,17 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -2849,7 +2849,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>753913</t>
+          <t>116648</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Poireau / Vrac 5 kg / Cat. I / France</t>
+          <t>Tomates Mélangées / Vrac 3,5 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2881,17 +2881,17 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>23</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -2909,7 +2909,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>101913</t>
+          <t>099432</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Poivrons Jaunes / Vrac 5 kg / GG-A (90-110 mm) / Cat. I / Espagne</t>
+          <t>Pomme Golden / 1 rang 4,5 kg / 15 (265-305 g) / Cat. I / France</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2941,17 +2941,17 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>1,70</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>120956</t>
+          <t>099702</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2984,7 +2984,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Poivrons Rouges / Vrac 5 kg / GG-B (80-100 mm) / Cat. I / Espagne</t>
+          <t>Pêches Jaunes / Vrac 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3001,17 +3001,17 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>120958</t>
+          <t>083839</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3044,7 +3044,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Poivrons Verts / Vrac 5 kg / GG-B (80-100 mm) / Cat. I / Espagne</t>
+          <t>Poires Conférence / Vrac 12 kg / 60-65 mm / Cat. I / Belgique</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3061,17 +3061,17 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>16</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>122546</t>
+          <t>123223</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3104,7 +3104,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tomates grappe / Vrac 10 kg / Cat. I / France</t>
+          <t>Tomates Charnues / Vrac 7 kg / 8G (77-82 mm) / Cat. I / France</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3121,17 +3121,17 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3149,7 +3149,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>099851</t>
+          <t>110726</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Abricot / Plateau 5 kg / AA (45-49 mm) / Cat. I / Espagne</t>
+          <t>Abricot / Vrac 5 kg / A (40-44 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3181,17 +3181,17 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>1,80</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3209,7 +3209,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>101572</t>
+          <t>102253</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Nectarines Blanches / Vrac 4 kg / A (67-73 mm) / Cat. I / Espagne</t>
+          <t>Brocolis / Vrac 6 kg / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3241,17 +3241,17 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>100378</t>
+          <t>021471</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Nectarines Jaunes / Vrac 4 kg / A (67-73 mm) / Cat. I / Espagne</t>
+          <t>Choux Blancs / Vrac 6 pcs - 13 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3301,17 +3301,17 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>102151</t>
+          <t>101572</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3344,7 +3344,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Pêches Blanches / Plateau 4 kg / A 26 / Cat. I / Espagne</t>
+          <t>Nectarines Blanches / Vrac 4 kg / A (67-73 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3361,17 +3361,17 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>6</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3389,7 +3389,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>099702</t>
+          <t>100378</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -3404,7 +3404,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Pêches Jaunes / Vrac 4 kg / A 26 / Cat. I / Espagne</t>
+          <t>Nectarines Jaunes / Vrac 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3421,17 +3421,17 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>3,18</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>10</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3449,7 +3449,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>120237</t>
+          <t>753916</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3464,7 +3464,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tomates Marmande / Vrac 3,5 kg / Cat. I / France</t>
+          <t>Poireau / Vrac 10 kg / Cat. I / Belgique</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3481,17 +3481,17 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>2,60</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>2</t>
         </is>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>116648</t>
+          <t>123221</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3524,7 +3524,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tomates Mélangées / Vrac 3,5 kg / Cat. I / France</t>
+          <t>Tomates Charnues / Vrac 7 kg / GG / 9 (82-102 mm) / Cat. I / Belgique</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3541,17 +3541,17 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -3569,7 +3569,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>120230</t>
+          <t>099190</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3584,7 +3584,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tomates Côtelées Noires / Vrac 3,5 kg / Cat. I / France</t>
+          <t>Tomates rondes / Vrac 5 kg / 67+ / Cat. I / Belgique</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3601,17 +3601,17 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>4</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>080066</t>
+          <t>101913</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Oranges feuilles / Vrac 10,5 kg / 2 / Cat. I / Portugal</t>
+          <t>Poivrons Jaunes / Vrac 5 kg / GG-A (90-110 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3661,380 +3661,20 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>110524</t>
+          <t>180524</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>961</v>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>100304</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>774</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Pêches plates Blanches / Vrac 5 kg / A (67-73 mm) / Cat. I / Espagne</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>MEYER GROUP</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>373721</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>4,77</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>110524</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>961</v>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>116632</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>774</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Tomates Allongées / Roma / Vrac 6 kg / Cat. I / Belgique</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>MEYER GROUP</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>373721</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>1,33</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>110524</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>961</v>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>099432</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>774</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Pomme Golden / 1 rang 4,5 kg / 15 (265-305 g) / Cat. I / France</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>MEYER GROUP</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>373721</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>1,70</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>110524</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>961</v>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>855766</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>774</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Pastèque / Vrac 6 pcs - 16 kg / 6 (3-4 kg) / Cat. I / Espagne</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>MEYER GROUP</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>373721</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>2,92</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>110524</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>961</v>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>077433</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>774</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Poires Conférence / Vrac 4,5 kg / 75-80 mm / Cat. I / Belgique</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>MEYER GROUP</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>373721</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>2,01</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>110524</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>961</v>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>131760</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>C47</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>774</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Pomme Golden Rosée / 1 rang 4 kg / Cat. I / France</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>MEYER GROUP</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>373721</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>2,33</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>110524</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
         <is>
           <t>Ok</t>
         </is>

--- a/src/Rapport Tarif.xlsx
+++ b/src/Rapport Tarif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,7 +509,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>254616</t>
+          <t>843091</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tomates Cerises / Barquettes 12x250 g / Cat. I / France</t>
+          <t>Avocat Hass / Vrac 20 pcs - 4 kg / Cat. I / Afrique du Sud</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -541,17 +541,15 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="L2" t="n">
+        <v>192</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -569,12 +567,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>102981</t>
+          <t>377622</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -584,7 +582,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Pomme Jazz™ / 1 rang 4,5 kg / 18 (201-240 g) / Cat. I / France</t>
+          <t>Fraises / Barquettes 8x500 g / Cat. I / Belgique</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -601,17 +599,15 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>2,33</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="L3" t="n">
+        <v>168</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -629,12 +625,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>377622</t>
+          <t>099885</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -644,7 +640,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Fraises / Barquettes 8x500 g / Cat. I / Belgique</t>
+          <t>Abricot / Vrac 5 kg / A (40-44 mm) / Cat. I / France</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -661,17 +657,15 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2,61</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>139</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -689,7 +683,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>101572</t>
+          <t>182953</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -704,7 +698,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Nectarines Blanches / Vrac 4 kg / A (67-73 mm) / Cat. I / Espagne</t>
+          <t>Framboises / Barquettes 12x125 g / Cat. I / Maroc</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -721,17 +715,15 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>2,54</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+          <t>0,70</t>
+        </is>
+      </c>
+      <c r="L5" t="n">
+        <v>174</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -749,12 +741,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>100378</t>
+          <t>062765</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -764,7 +756,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nectarines Jaunes / Vrac 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
+          <t>Myrtilles / Barquettes 12x125 g / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -781,17 +773,15 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>2,01</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+          <t>0,70</t>
+        </is>
+      </c>
+      <c r="L6" t="n">
+        <v>62</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -809,12 +799,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>116632</t>
+          <t>011302</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -824,7 +814,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tomates Allongées / Roma / Vrac 6 kg / Cat. I / Pays-Bas</t>
+          <t>Melons Charentais / - 12 pcs - 10 kg / 12L (800-950 g) / Cat. I / France</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -841,17 +831,15 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>92</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -869,7 +857,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>121954</t>
+          <t>031551</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -884,7 +872,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Concombres / Vrac 12 pcs - 6,6 kg / 12M (400-500 g) / Cat. I / Pays-Bas</t>
+          <t>Fruit de la passion / Vrac 36 pcs - 2 kg / Cat. I / Colombie</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -901,17 +889,15 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
+          <t>0,54</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>4</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -929,7 +915,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>021311</t>
+          <t>120958</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -944,7 +930,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Choux Rouges / Vrac 6 pcs - 10 kg / Cat. I / Portugal</t>
+          <t>Poivrons Verts / Vrac 5 kg / GG-B (80-100 mm) / Cat. I / Belgique</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -961,17 +947,15 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2,12</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>7</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -989,7 +973,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>099505</t>
+          <t>120956</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1004,7 +988,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Pomme Royal Gala / 1 rang 4,5 kg / 16 F (230-270 g) / Cat. I / France</t>
+          <t>Poivrons Rouges / Vrac 5 kg / GG-B (80-100 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1021,17 +1005,15 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>2,70</t>
+        </is>
+      </c>
+      <c r="L10" t="n">
+        <v>12</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1049,7 +1031,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>135788</t>
+          <t>116632</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1064,7 +1046,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Pomme Pink Lady® / Vrac 4,5 kg / Cat. I / France</t>
+          <t>Tomates Allongées / Roma / Vrac 6 kg / Cat. I / Pays-Bas</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1081,17 +1063,15 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>2,44</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>14</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1109,7 +1089,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>146515</t>
+          <t>120230</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1124,7 +1104,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Pomme Chantecler / 1 rang 4,5 kg / 16 (230-270 g) / Cat. I / France</t>
+          <t>Tomates Côtelées Noires / Vrac 3,5 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1144,14 +1124,12 @@
           <t>2,33</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="L12" t="n">
+        <v>23</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1169,7 +1147,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>117147</t>
+          <t>103103</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1184,7 +1162,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Patates douces / Vrac 6 kg / L1 (300-450g) / Cat. I / Egypte</t>
+          <t>Tomates Jaunes Ananas / Vrac 3,5 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1201,17 +1179,15 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1,48</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>22</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1229,12 +1205,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>011302</t>
+          <t>120237</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>C40</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1244,7 +1220,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Melons Charentais / - 12 pcs - 10 kg / 12L (800-950 g) / Cat. I / France</t>
+          <t>Tomates Marmande / Vrac 3,5 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1261,17 +1237,15 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>24</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1289,7 +1263,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>099702</t>
+          <t>116648</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1304,7 +1278,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Pêches Jaunes / Vrac 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
+          <t>Tomates Mélangées / Vrac 3,5 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1321,17 +1295,15 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2,01</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>28</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1349,7 +1321,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>102151</t>
+          <t>120183</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1364,7 +1336,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Pêches Blanches / Plateau 4,5 kg / A 26 / Cat. I / Espagne</t>
+          <t>Aubergines / Vrac 5 kg / M (300-400 g) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1381,17 +1353,15 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>2,54</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="L16" t="n">
+        <v>21</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1409,7 +1379,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>753916</t>
+          <t>077055</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1424,7 +1394,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Poireau / Vrac 10 kg / Cat. I / Belgique</t>
+          <t>Carotte Sable (non lavée) / Vrac 12 kg / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1441,17 +1411,15 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>2,60</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1469,7 +1437,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>120183</t>
+          <t>116633</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1484,7 +1452,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Aubergines / Vrac 5 kg / M (300-400 g) / Cat. I / Espagne</t>
+          <t>Tomates cocktail / Vrac 3,5 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1501,17 +1469,15 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1,11</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>8</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1529,12 +1495,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>031653</t>
+          <t>140738</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C37</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1544,7 +1510,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Carottes (fanes) / Bottes 12x667 g / Cat. I / Espagne</t>
+          <t>Fraises Gariguette / Barquettes 16x250 g / Cat. I / France</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1561,17 +1527,15 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1,33</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>2,44</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>13</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1589,7 +1553,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>081823</t>
+          <t>123223</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1604,7 +1568,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Carottes / Vrac 12 kg / Cat. I / Espagne</t>
+          <t>Tomates Charnues / Vrac 7 kg / 8G (77-82 mm) / Cat. I / France</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1621,17 +1585,15 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1,22</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>10</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1649,7 +1611,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>021471</t>
+          <t>101572</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1664,7 +1626,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Choux Blancs / Vrac 6 pcs - 13 kg / Cat. I / France</t>
+          <t>Nectarines Blanches / Vrac 4 kg / A (67-73 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1681,17 +1643,15 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>2,54</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>15</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1709,7 +1669,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>813321</t>
+          <t>100378</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1724,7 +1684,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Courgettes / Vrac 9 kg / M (14-21 cm) / Cat. I / Espagne</t>
+          <t>Nectarines Jaunes / Vrac 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1741,17 +1701,15 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1,48</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>36</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1769,12 +1727,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>086297</t>
+          <t>785072</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C10</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1784,7 +1742,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Radis Rose / Bottes 12x400 g / Cat. I / France</t>
+          <t>Fraises Gariguette / Barquettes 8x250 g / Cat. I / France</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1801,17 +1759,15 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1,06</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>40</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1829,7 +1785,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>122546</t>
+          <t>110726</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1844,7 +1800,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tomates grappe / Vrac 10 kg / Cat. I / France</t>
+          <t>Abricot / Vrac 5 kg / AA (45-49 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1861,17 +1817,15 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1,17</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+          <t>1,70</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>23</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1889,7 +1843,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>120183</t>
+          <t>103232</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1899,12 +1853,12 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Aubergines / Vrac 5 kg / M (300-400 g) / Cat. I / Espagne</t>
+          <t>Cerises Burlat / Vrac 5 kg / 20-22 mm / Cat. I / France</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1921,17 +1875,15 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>1,11</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>7,42</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>5</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -1949,7 +1901,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>103232</t>
+          <t>122546</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1959,12 +1911,12 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Cerises Burlat / Vrac 5 kg / 20-22 mm / Cat. I / France</t>
+          <t>Tomates grappe / Vrac 10 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1981,17 +1933,15 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>9,54</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>18</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2009,7 +1959,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>813321</t>
+          <t>121954</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2019,12 +1969,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Courgettes / Vrac 9 kg / M (14-21 cm) / Cat. I / Espagne</t>
+          <t>Concombres / Vrac 12 pcs - 6,6 kg / 12M (400-500 g) / Cat. I / Pays-Bas</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -2041,17 +1991,15 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>1,48</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>0,80</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
+        <v>10</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2069,7 +2017,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>121954</t>
+          <t>076810</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2079,12 +2027,12 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Concombres / Vrac 12 pcs - 6,6 kg / 12M (400-500 g) / Cat. I / Pays-Bas</t>
+          <t>Manioc / Vrac 18 kg / Cat. I / Costra Rica</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2101,17 +2049,15 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>0,78</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
+          <t>1,76</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>1</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2129,7 +2075,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>136825</t>
+          <t>077433</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2139,12 +2085,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kiwi Jaunes / Vrac 52 pcs - 5,7 kg / 33 (85-95g) / Cat. I / Nouvelle-Zélande</t>
+          <t>Poires Conférence / Vrac 4,5 kg / 75-80 mm / Cat. I / Belgique</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2161,17 +2107,15 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="L29" t="n">
+        <v>3</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2189,7 +2133,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>117147</t>
+          <t>754190</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2199,12 +2143,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Patates douces / Vrac 6 kg / L1 (300-450g) / Cat. I / Egypte</t>
+          <t>Artichaut Blanc / Plateau 15 pcs - 7,3 kg / 15 pcs / Cat. I / France</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2221,17 +2165,15 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1,48</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="L30" t="n">
+        <v>4</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2249,7 +2191,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>132981</t>
+          <t>081842</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2259,12 +2201,12 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Kiwi / Plateau 30 pcs - 3 kg / 27 (105-115g) / Cat. I / France</t>
+          <t>Carottes / Vrac 12 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2281,17 +2223,15 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0,43</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="L31" t="n">
+        <v>2</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2309,7 +2249,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>182953</t>
+          <t>099702</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2319,12 +2259,12 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Framboises / Barquettes 12x125 g / Cat. I / Maroc</t>
+          <t>Pêches Jaunes / Vrac 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2341,17 +2281,15 @@
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr">
         <is>
-          <t>0,74</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="L32" t="n">
+        <v>21</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2369,22 +2307,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>100304</t>
+          <t>559307</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C35</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Pêches plates Blanches / Vrac 5 kg / A (67-73 mm) / Cat. I / Espagne</t>
+          <t>Cerises / Barquettes 10x500 g / Cat. I / France</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2401,17 +2339,15 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>3,39</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+          <t>3,71</t>
+        </is>
+      </c>
+      <c r="L33" t="n">
+        <v>4</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2429,7 +2365,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>102151</t>
+          <t>021471</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2439,12 +2375,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Pêches Blanches / Plateau 4,5 kg / A 26 / Cat. I / Espagne</t>
+          <t>Choux Blancs / Vrac 6 pcs - 13 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2461,17 +2397,15 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>2,54</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+          <t>1,94</t>
+        </is>
+      </c>
+      <c r="L34" t="n">
+        <v>3</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2489,7 +2423,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>031551</t>
+          <t>101621</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2499,12 +2433,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Fruit de la passion / Vrac 36 pcs - 2 kg / Cat. I / Colombie</t>
+          <t>Nectarines Blanches / Vrac 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2521,17 +2455,15 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+          <t>2,44</t>
+        </is>
+      </c>
+      <c r="L35" t="n">
+        <v>6</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2549,7 +2481,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>116632</t>
+          <t>102151</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2559,12 +2491,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Tomates Allongées / Roma / Vrac 6 kg / Cat. I / Pays-Bas</t>
+          <t>Pêches Blanches / Plateau 4,5 kg / A 26 / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2581,17 +2513,15 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+          <t>2,54</t>
+        </is>
+      </c>
+      <c r="L36" t="n">
+        <v>9</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2609,7 +2539,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>122546</t>
+          <t>100304</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2619,12 +2549,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tomates grappe / Vrac 10 kg / Cat. I / France</t>
+          <t>Pêches plates Blanches / Vrac 5 kg / A (67-73 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2641,17 +2571,15 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>1,17</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="L37" t="n">
+        <v>4</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2669,7 +2597,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>120237</t>
+          <t>102253</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2679,12 +2607,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tomates Marmande / Vrac 3,5 kg / Cat. I / France</t>
+          <t>Brocolis / Vrac 6 kg / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2701,17 +2629,15 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2,23</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>3</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -2729,7 +2655,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>120230</t>
+          <t>031653</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2739,12 +2665,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Tomates Côtelées Noires / Vrac 3,5 kg / Cat. I / France</t>
+          <t>Carottes (fanes) / Bottes 12x667 g / Cat. I / Italie</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2761,17 +2687,15 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>1</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -2789,7 +2713,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>103103</t>
+          <t>021311</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2799,12 +2723,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tomates Jaunes Ananas / Vrac 3,5 kg / Cat. I / France</t>
+          <t>Choux Rouges / Vrac 6 pcs - 10 kg / Cat. I / Portugal</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2821,17 +2745,15 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2,65</t>
-        </is>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -2849,7 +2771,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>116648</t>
+          <t>134926</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2859,12 +2781,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tomates Mélangées / Vrac 3,5 kg / Cat. I / France</t>
+          <t>Piments Verts / Vrac 4 kg / Cat. I / Maroc</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2881,17 +2803,15 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>2,33</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
+          <t>1,27</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>1</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -2909,7 +2829,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>099432</t>
+          <t>086297</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2919,12 +2839,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>774</t>
+          <t>729</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Pomme Golden / 1 rang 4,5 kg / 15 (265-305 g) / Cat. I / France</t>
+          <t>Radis Rose / Bottes 12x400 g / Cat. I / France</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2941,17 +2861,15 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>1,70</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>3</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -2969,7 +2887,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>099702</t>
+          <t>843091</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2984,7 +2902,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Pêches Jaunes / Vrac 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
+          <t>Avocat Hass / Vrac 20 pcs - 4 kg / Cat. I / Afrique du Sud</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -3001,17 +2919,15 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2,01</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="L43" t="n">
+        <v>118</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -3029,12 +2945,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>083839</t>
+          <t>377622</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C33</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3044,7 +2960,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Poires Conférence / Vrac 12 kg / 60-65 mm / Cat. I / Belgique</t>
+          <t>Fraises / Barquettes 8x500 g / Cat. I / Belgique</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -3061,17 +2977,15 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>1,38</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="L44" t="n">
+        <v>72</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -3089,7 +3003,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>123223</t>
+          <t>099885</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3104,7 +3018,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tomates Charnues / Vrac 7 kg / 8G (77-82 mm) / Cat. I / France</t>
+          <t>Abricot / Vrac 5 kg / A (40-44 mm) / Cat. I / France</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3121,17 +3035,15 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>1,11</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="L45" t="n">
+        <v>70</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3149,7 +3061,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>110726</t>
+          <t>182953</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3164,7 +3076,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Abricot / Vrac 5 kg / A (40-44 mm) / Cat. I / Espagne</t>
+          <t>Framboises / Barquettes 12x125 g / Cat. I / Maroc</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3181,17 +3093,15 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>2,12</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>0,70</t>
+        </is>
+      </c>
+      <c r="L46" t="n">
+        <v>76</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3209,12 +3119,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>102253</t>
+          <t>062765</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3224,7 +3134,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Brocolis / Vrac 6 kg / Cat. I / Espagne</t>
+          <t>Myrtilles / Barquettes 12x125 g / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3241,17 +3151,15 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>2,12</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>0,70</t>
+        </is>
+      </c>
+      <c r="L47" t="n">
+        <v>33</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3269,12 +3177,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>021471</t>
+          <t>011302</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C40</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3284,7 +3192,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Choux Blancs / Vrac 6 pcs - 13 kg / Cat. I / France</t>
+          <t>Melons Charentais / - 12 pcs - 10 kg / 12L (800-950 g) / Cat. I / France</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3301,17 +3209,15 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>1,94</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="L48" t="n">
+        <v>111</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3329,7 +3235,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>101572</t>
+          <t>120183</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3344,7 +3250,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Nectarines Blanches / Vrac 4 kg / A (67-73 mm) / Cat. I / Espagne</t>
+          <t>Aubergines / Vrac 5 kg / M (300-400 g) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3361,17 +3267,15 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>2,54</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="L49" t="n">
+        <v>4</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3389,12 +3293,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>100378</t>
+          <t>785072</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C10</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3404,7 +3308,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Nectarines Jaunes / Vrac 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
+          <t>Fraises Gariguette / Barquettes 8x250 g / Cat. I / France</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3421,17 +3325,15 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>2,01</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+          <t>1,59</t>
+        </is>
+      </c>
+      <c r="L50" t="n">
+        <v>25</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3449,7 +3351,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>753916</t>
+          <t>100903</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3464,7 +3366,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Poireau / Vrac 10 kg / Cat. I / Belgique</t>
+          <t>Champignon blanc (pied coupé) / Vrac 3 kg / Cat. I / Pologne</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3481,17 +3383,15 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2,60</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+          <t>2,49</t>
+        </is>
+      </c>
+      <c r="L51" t="n">
+        <v>3</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3509,7 +3409,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>123221</t>
+          <t>100304</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3524,7 +3424,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tomates Charnues / Vrac 7 kg / GG / 9 (82-102 mm) / Cat. I / Belgique</t>
+          <t>Pêches plates Blanches / Vrac 5 kg / A (67-73 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3541,17 +3441,15 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>1,17</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+          <t>2,65</t>
+        </is>
+      </c>
+      <c r="L52" t="n">
+        <v>13</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -3569,7 +3467,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>099190</t>
+          <t>123223</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3584,7 +3482,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tomates rondes / Vrac 5 kg / 67+ / Cat. I / Belgique</t>
+          <t>Tomates Charnues / Vrac 7 kg / 8G (77-82 mm) / Cat. I / France</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3604,14 +3502,12 @@
           <t>1,11</t>
         </is>
       </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="L53" t="n">
+        <v>10</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>180524</t>
+          <t>220524</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -3629,7 +3525,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>101913</t>
+          <t>120237</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3644,7 +3540,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Poivrons Jaunes / Vrac 5 kg / GG-A (90-110 mm) / Cat. I / Espagne</t>
+          <t>Tomates Marmande / Vrac 3,5 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3661,20 +3557,1120 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="L54" t="n">
+        <v>11</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>220524</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>961</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>121954</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Concombres / Vrac 12 pcs - 6,6 kg / 12M (400-500 g) / Cat. I / Pays-Bas</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>0,80</t>
+        </is>
+      </c>
+      <c r="L55" t="n">
+        <v>30</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>220524</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>961</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>011265</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Melons / Vrac 6 pcs - 5 kg / 6 pcs / Cat. I / Italie</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>220524</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>961</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>116632</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Tomates Allongées / Roma / Vrac 6 kg / Cat. I / Pays-Bas</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>1,22</t>
+        </is>
+      </c>
+      <c r="L57" t="n">
+        <v>5</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>220524</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>961</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>122546</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Tomates grappe / Vrac 10 kg / Cat. I / France</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="L58" t="n">
+        <v>45</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>220524</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>961</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>116976</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Poivrons longs verts Corne de Boeuf / Vrac 5 kg / Cat. I / Maroc</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="L59" t="n">
+        <v>4</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>220524</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>961</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>120956</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Poivrons Rouges / Vrac 5 kg / GG-B (80-100 mm) / Cat. I / Espagne</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>2,70</t>
+        </is>
+      </c>
+      <c r="L60" t="n">
+        <v>12</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>220524</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>961</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>120958</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Poivrons Verts / Vrac 5 kg / GG-B (80-100 mm) / Cat. I / Belgique</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>2,23</t>
+        </is>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>220524</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>961</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>099432</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Pomme Golden / 1 rang 4,5 kg / 15 (265-305 g) / Cat. I / France</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>1,70</t>
+        </is>
+      </c>
+      <c r="L62" t="n">
+        <v>8</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>220524</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>961</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>559307</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>C35</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Cerises / Barquettes 10x500 g / Cat. I / France</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>3,71</t>
+        </is>
+      </c>
+      <c r="L63" t="n">
+        <v>2</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>220524</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>961</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>103232</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Cerises Burlat / Vrac 5 kg / 20-22 mm / Cat. I / France</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>7,42</t>
+        </is>
+      </c>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>220524</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>961</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>102151</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Pêches Blanches / Plateau 4,5 kg / A 26 / Cat. I / Espagne</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
           <t>2,54</t>
         </is>
       </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>180524</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
+      <c r="L65" t="n">
+        <v>6</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>220524</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>961</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>099702</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Pêches Jaunes / Vrac 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="L66" t="n">
+        <v>6</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>220524</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>961</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>120230</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Tomates Côtelées Noires / Vrac 3,5 kg / Cat. I / France</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="L67" t="n">
+        <v>5</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>220524</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>961</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>116648</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Tomates Mélangées / Vrac 3,5 kg / Cat. I / France</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>2,33</t>
+        </is>
+      </c>
+      <c r="L68" t="n">
+        <v>6</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>220524</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>961</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>110726</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Abricot / Vrac 5 kg / AA (45-49 mm) / Cat. I / Espagne</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>1,70</t>
+        </is>
+      </c>
+      <c r="L69" t="n">
+        <v>6</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>220524</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>961</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>136825</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Kiwi Jaunes / Vrac 52 pcs - 5,7 kg / 33 (85-95g) / Cat. I / Nouvelle-Zélande</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="L70" t="n">
+        <v>3</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>220524</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>961</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>101913</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Poivrons Jaunes / Vrac 5 kg / GG-A (90-110 mm) / Cat. I / Espagne</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>2</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>220524</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>961</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>077433</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Poires Conférence / Vrac 4,5 kg / 75-80 mm / Cat. I / Belgique</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>2,01</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>8</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>220524</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>Ok</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>961</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>753913</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>C44</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>774</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Poireau / Vrac 5 kg / Cat. I / France</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>MEYER GROUP</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>373721</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>4</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>220524</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
         <is>
           <t>Ok</t>
         </is>

--- a/src/Rapport Tarif.xlsx
+++ b/src/Rapport Tarif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N73"/>
+  <dimension ref="A1:O61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>Status</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Warning</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -509,7 +514,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>843091</t>
+          <t>103103</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -524,7 +529,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Avocat Hass / Vrac 20 pcs - 4 kg / Cat. I / Afrique du Sud</t>
+          <t>Tomates Jaunes Ananas / Vrac 3,5 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -541,15 +546,15 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>1,70</t>
         </is>
       </c>
       <c r="L2" t="n">
-        <v>192</v>
+        <v>6</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
@@ -557,6 +562,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -567,12 +573,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>377622</t>
+          <t>120958</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -582,7 +588,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Fraises / Barquettes 8x500 g / Cat. I / Belgique</t>
+          <t>Poivrons Verts / Vrac 5 kg / GG-B (80-100 mm) / Cat. I / Belgique</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -599,15 +605,15 @@
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>168</v>
+        <v>7</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -615,6 +621,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -625,7 +632,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>099885</t>
+          <t>120394</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -640,7 +647,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Abricot / Vrac 5 kg / A (40-44 mm) / Cat. I / France</t>
+          <t>Poivrons Rouges / Vrac 5 kg / GG-A (90-110 mm) / Cat. I / Belgique</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -657,15 +664,15 @@
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>139</v>
+        <v>27</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -673,6 +680,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -683,7 +691,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>182953</t>
+          <t>101913</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -698,7 +706,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Framboises / Barquettes 12x125 g / Cat. I / Maroc</t>
+          <t>Poivrons Jaunes / Vrac 5 kg / GG-A (90-110 mm) / Cat. I / Belgique</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -715,15 +723,15 @@
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0,70</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>174</v>
+        <v>4</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -731,6 +739,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -741,12 +750,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>062765</t>
+          <t>120230</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -756,7 +765,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Myrtilles / Barquettes 12x125 g / Cat. I / Espagne</t>
+          <t>Tomates Côtelées Noires / Vrac 3,5 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -773,15 +782,15 @@
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0,70</t>
+          <t>1,70</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -789,6 +798,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -799,12 +809,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>011302</t>
+          <t>116631</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>C40</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -814,7 +824,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Melons Charentais / - 12 pcs - 10 kg / 12L (800-950 g) / Cat. I / France</t>
+          <t>Tomates Allongées / Roma / Vrac 6 kg / G / 8 (67-82 mm) / Cat. I / France</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -831,15 +841,15 @@
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="L7" t="n">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
@@ -847,6 +857,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -857,7 +868,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>031551</t>
+          <t>123223</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -872,7 +883,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fruit de la passion / Vrac 36 pcs - 2 kg / Cat. I / Colombie</t>
+          <t>Tomates Charnues / Vrac 7 kg / 8G (77-82 mm) / Cat. I / France</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -889,15 +900,15 @@
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="L8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -905,6 +916,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -915,7 +927,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>120958</t>
+          <t>120237</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -930,7 +942,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Poivrons Verts / Vrac 5 kg / GG-B (80-100 mm) / Cat. I / Belgique</t>
+          <t>Tomates Marmande / Vrac 3,5 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -947,15 +959,15 @@
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>1,70</t>
         </is>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
@@ -963,6 +975,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -973,12 +986,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>120956</t>
+          <t>813250</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C27</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -988,7 +1001,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Poivrons Rouges / Vrac 5 kg / GG-B (80-100 mm) / Cat. I / Espagne</t>
+          <t>Courgettes / Vrac 9 kg / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1005,15 +1018,15 @@
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr">
         <is>
-          <t>2,70</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1021,6 +1034,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1031,7 +1045,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>116632</t>
+          <t>078451</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1046,7 +1060,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tomates Allongées / Roma / Vrac 6 kg / Cat. I / Pays-Bas</t>
+          <t>Oranges / Vrac 15 kg / 7 / Cat. I / Egypte</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1063,15 +1077,15 @@
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>0,80</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
@@ -1079,6 +1093,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1089,7 +1104,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>120230</t>
+          <t>121954</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1104,7 +1119,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tomates Côtelées Noires / Vrac 3,5 kg / Cat. I / France</t>
+          <t>Concombres / Vrac 12 pcs - 6,6 kg / 12M (400-500 g) / Cat. I / Pays-Bas</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1121,15 +1136,15 @@
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
@@ -1137,6 +1152,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1147,7 +1163,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>103103</t>
+          <t>116621</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1162,7 +1178,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tomates Jaunes Ananas / Vrac 3,5 kg / Cat. I / France</t>
+          <t>Poivrons Oranges / Vrac 5 kg / G-B (60-80 mm) / Cat. I / Pays-Bas</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1179,15 +1195,15 @@
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1195,6 +1211,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1205,12 +1222,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>120237</t>
+          <t>019970</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>BOX</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1220,7 +1237,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tomates Marmande / Vrac 3,5 kg / Cat. I / France</t>
+          <t>Pastèque / Palox 500 kg / Cat. I / Maroc</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1237,15 +1254,15 @@
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>0,95</t>
         </is>
       </c>
       <c r="L14" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -1253,6 +1270,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1263,7 +1281,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>116648</t>
+          <t>101572</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1278,7 +1296,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Tomates Mélangées / Vrac 3,5 kg / Cat. I / France</t>
+          <t>Nectarines Blanches / Vrac 4 kg / A (67-73 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1295,15 +1313,15 @@
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1311,6 +1329,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1321,7 +1340,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>120183</t>
+          <t>101621</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1336,7 +1355,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Aubergines / Vrac 5 kg / M (300-400 g) / Cat. I / Espagne</t>
+          <t>Nectarines Blanches / Vrac 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1353,15 +1372,15 @@
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
@@ -1369,6 +1388,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1379,7 +1399,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>077055</t>
+          <t>120183</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1394,7 +1414,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Carotte Sable (non lavée) / Vrac 12 kg / Cat. I / Espagne</t>
+          <t>Aubergines / Vrac 5 kg / M (300-400 g) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1411,15 +1431,15 @@
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>0,90</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -1427,6 +1447,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1437,7 +1458,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>116633</t>
+          <t>843120</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1452,7 +1473,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tomates cocktail / Vrac 3,5 kg / Cat. I / France</t>
+          <t>Avocat Hass / Plateau 18 pcs - 4 kg / Cat. I / Pérou</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1469,15 +1490,15 @@
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="L18" t="n">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -1485,6 +1506,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1495,12 +1517,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>140738</t>
+          <t>803977</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>C37</t>
+          <t>C27</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1510,7 +1532,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Fraises Gariguette / Barquettes 16x250 g / Cat. I / France</t>
+          <t>Courgettes / Vrac 9 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1527,15 +1549,15 @@
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="L19" t="n">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -1543,6 +1565,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1553,7 +1576,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>123223</t>
+          <t>100378</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1568,7 +1591,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tomates Charnues / Vrac 7 kg / 8G (77-82 mm) / Cat. I / France</t>
+          <t>Nectarines Jaunes / Vrac 4 kg / A (67-73 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1585,15 +1608,15 @@
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
@@ -1601,6 +1624,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1611,7 +1635,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>101572</t>
+          <t>102151</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1626,7 +1650,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Nectarines Blanches / Vrac 4 kg / A (67-73 mm) / Cat. I / Espagne</t>
+          <t>Pêches Blanches / Plateau 4,5 kg / A 26 / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1643,15 +1667,15 @@
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -1659,6 +1683,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1669,12 +1694,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>100378</t>
+          <t>062765</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C7</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1684,7 +1709,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Nectarines Jaunes / Vrac 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
+          <t>Myrtilles / Barquettes 12x125 g / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1701,15 +1726,15 @@
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
@@ -1717,6 +1742,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1727,12 +1753,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>785072</t>
+          <t>100304</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>C10</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1742,7 +1768,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Fraises Gariguette / Barquettes 8x250 g / Cat. I / France</t>
+          <t>Pêches plates Blanches / Vrac 5 kg / B (61-67 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1759,15 +1785,15 @@
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
@@ -1775,6 +1801,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1785,12 +1812,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>110726</t>
+          <t>011302</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C40</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1800,7 +1827,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Abricot / Vrac 5 kg / AA (45-49 mm) / Cat. I / Espagne</t>
+          <t>Melons Charentais / - 12 pcs - 10 kg / 12L (800-950 g) / Cat. I / France</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1817,15 +1844,15 @@
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr">
         <is>
-          <t>1,70</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
@@ -1833,6 +1860,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1843,7 +1871,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>103232</t>
+          <t>011381</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1858,7 +1886,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Cerises Burlat / Vrac 5 kg / 20-22 mm / Cat. I / France</t>
+          <t>Melons / Vrac 12 pcs - 11 kg / 12L (800-950 g) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1875,15 +1903,15 @@
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr">
         <is>
-          <t>7,42</t>
+          <t>1,27</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
@@ -1891,6 +1919,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1901,7 +1930,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>122546</t>
+          <t>843091</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1916,7 +1945,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tomates grappe / Vrac 10 kg / Cat. I / France</t>
+          <t>Avocat Hass / Vrac 20 pcs - 4 kg / Cat. I / Afrique du Sud</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1933,15 +1962,15 @@
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -1949,6 +1978,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1959,7 +1989,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>121954</t>
+          <t>116209</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1974,7 +2004,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Concombres / Vrac 12 pcs - 6,6 kg / 12M (400-500 g) / Cat. I / Pays-Bas</t>
+          <t>Asperges blanches / Vrac 5 kg / &gt;22 mm / Cat. I / France</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1991,15 +2021,15 @@
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr">
         <is>
-          <t>0,80</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
@@ -2007,6 +2037,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -2017,7 +2048,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>076810</t>
+          <t>182953</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2032,7 +2063,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Manioc / Vrac 18 kg / Cat. I / Costra Rica</t>
+          <t>Framboises / Barquettes 12x125 g / Cat. I / Maroc</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -2049,15 +2080,15 @@
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr">
         <is>
-          <t>1,76</t>
+          <t>0,70</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -2065,6 +2096,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -2075,7 +2107,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>077433</t>
+          <t>102981</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2090,7 +2122,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Poires Conférence / Vrac 4,5 kg / 75-80 mm / Cat. I / Belgique</t>
+          <t>Pomme Jazz™ / 1 rang 4,5 kg / 18 (201-240 g) / Cat. I / France</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -2107,15 +2139,15 @@
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -2123,6 +2155,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2133,7 +2166,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>754190</t>
+          <t>102253</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2148,7 +2181,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Artichaut Blanc / Plateau 15 pcs - 7,3 kg / 15 pcs / Cat. I / France</t>
+          <t>Brocolis / Vrac 6 kg / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -2165,15 +2198,15 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -2181,6 +2214,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2191,7 +2225,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>081842</t>
+          <t>099432</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2206,7 +2240,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Carottes / Vrac 12 kg / Cat. I / France</t>
+          <t>Pomme Golden / 1 rang 4,5 kg / 15 (265-305 g) / Cat. I / France</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -2223,15 +2257,15 @@
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>1,70</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
@@ -2239,6 +2273,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2249,7 +2284,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>099702</t>
+          <t>099769</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2264,7 +2299,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Pêches Jaunes / Vrac 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
+          <t>Pêches Jaunes / Plateau 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -2285,11 +2320,11 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
@@ -2297,6 +2332,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2307,22 +2343,22 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>559307</t>
+          <t>101572</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>C35</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Cerises / Barquettes 10x500 g / Cat. I / France</t>
+          <t>Nectarines Blanches / Vrac 4 kg / A (67-73 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -2339,15 +2375,15 @@
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr">
         <is>
-          <t>3,71</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
@@ -2355,6 +2391,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2365,7 +2402,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>021471</t>
+          <t>100378</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -2375,12 +2412,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Choux Blancs / Vrac 6 pcs - 13 kg / Cat. I / France</t>
+          <t>Nectarines Jaunes / Vrac 4 kg / A (67-73 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -2397,15 +2434,15 @@
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr">
         <is>
-          <t>1,94</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
@@ -2413,6 +2450,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2423,7 +2461,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>101621</t>
+          <t>102151</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -2433,12 +2471,12 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Nectarines Blanches / Vrac 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
+          <t>Pêches Blanches / Plateau 4,5 kg / A 26 / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -2455,15 +2493,15 @@
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
@@ -2471,6 +2509,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2481,7 +2520,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>102151</t>
+          <t>099769</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2491,12 +2530,12 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Pêches Blanches / Plateau 4,5 kg / A 26 / Cat. I / Espagne</t>
+          <t>Pêches Jaunes / Plateau 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -2513,15 +2552,15 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -2529,6 +2568,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2539,7 +2579,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>100304</t>
+          <t>123223</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -2549,12 +2589,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Pêches plates Blanches / Vrac 5 kg / A (67-73 mm) / Cat. I / Espagne</t>
+          <t>Tomates Charnues / Vrac 7 kg / 8G (77-82 mm) / Cat. I / France</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -2571,15 +2611,15 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>1,06</t>
         </is>
       </c>
       <c r="L37" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
@@ -2587,6 +2627,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2597,7 +2638,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>102253</t>
+          <t>099702</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -2607,12 +2648,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Brocolis / Vrac 6 kg / Cat. I / Espagne</t>
+          <t>Pêches Jaunes / Vrac 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -2629,15 +2670,15 @@
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="L38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
@@ -2645,6 +2686,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2655,7 +2697,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>031653</t>
+          <t>120237</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -2665,12 +2707,12 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Carottes (fanes) / Bottes 12x667 g / Cat. I / Italie</t>
+          <t>Tomates Marmande / Vrac 3,5 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -2687,15 +2729,15 @@
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>1,70</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
@@ -2703,6 +2745,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2713,7 +2756,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>021311</t>
+          <t>120183</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -2723,12 +2766,12 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Choux Rouges / Vrac 6 pcs - 10 kg / Cat. I / Portugal</t>
+          <t>Aubergines / Vrac 5 kg / M (300-400 g) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -2745,15 +2788,15 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>0,90</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
@@ -2761,6 +2804,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2771,7 +2815,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>134926</t>
+          <t>182953</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2781,12 +2825,12 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Piments Verts / Vrac 4 kg / Cat. I / Maroc</t>
+          <t>Framboises / Barquettes 12x125 g / Cat. I / Maroc</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -2803,15 +2847,15 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>0,70</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
@@ -2819,6 +2863,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2829,7 +2874,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>086297</t>
+          <t>843091</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2839,12 +2884,12 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>729</t>
+          <t>774</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Radis Rose / Bottes 12x400 g / Cat. I / France</t>
+          <t>Avocat Hass / Vrac 20 pcs - 4 kg / Cat. I / Afrique du Sud</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -2861,15 +2906,15 @@
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
@@ -2877,6 +2922,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2887,7 +2933,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>843091</t>
+          <t>121954</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2902,7 +2948,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Avocat Hass / Vrac 20 pcs - 4 kg / Cat. I / Afrique du Sud</t>
+          <t>Concombres / Vrac 12 pcs - 6,6 kg / 12M (400-500 g) / Cat. I / Pays-Bas</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -2919,15 +2965,15 @@
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>118</v>
+        <v>65</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -2935,6 +2981,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2945,12 +2992,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>377622</t>
+          <t>100903</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>C33</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2960,7 +3007,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Fraises / Barquettes 8x500 g / Cat. I / Belgique</t>
+          <t>Champignon blanc (pied coupé) / Vrac 3 kg / Cat. I / Pologne</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2977,15 +3024,15 @@
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr">
         <is>
-          <t>1,37</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>72</v>
+        <v>3</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
@@ -2993,6 +3040,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -3003,12 +3051,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>099885</t>
+          <t>803977</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C27</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3018,7 +3066,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Abricot / Vrac 5 kg / A (40-44 mm) / Cat. I / France</t>
+          <t>Courgettes / Vrac 9 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3035,15 +3083,15 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>1,05</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
@@ -3051,6 +3099,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -3061,7 +3110,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>182953</t>
+          <t>101913</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -3076,7 +3125,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Framboises / Barquettes 12x125 g / Cat. I / Maroc</t>
+          <t>Poivrons Jaunes / Vrac 5 kg / GG-A (90-110 mm) / Cat. I / Belgique</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -3093,15 +3142,15 @@
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr">
         <is>
-          <t>0,70</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
@@ -3109,6 +3158,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -3119,12 +3169,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>062765</t>
+          <t>116976</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>C7</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3134,7 +3184,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Myrtilles / Barquettes 12x125 g / Cat. I / Espagne</t>
+          <t>Poivrons longs verts Corne de Boeuf / Vrac 5 kg / Cat. I / Maroc</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -3151,15 +3201,15 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
         <is>
-          <t>0,70</t>
+          <t>1,43</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
@@ -3167,6 +3217,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3177,12 +3228,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>011302</t>
+          <t>120394</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>C40</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3192,7 +3243,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Melons Charentais / - 12 pcs - 10 kg / 12L (800-950 g) / Cat. I / France</t>
+          <t>Poivrons Rouges / Vrac 5 kg / GG-A (90-110 mm) / Cat. I / Belgique</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -3209,15 +3260,15 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="L48" t="n">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
@@ -3225,6 +3276,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3235,7 +3287,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>120183</t>
+          <t>120958</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -3250,7 +3302,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Aubergines / Vrac 5 kg / M (300-400 g) / Cat. I / Espagne</t>
+          <t>Poivrons Verts / Vrac 5 kg / GG-B (80-100 mm) / Cat. I / Belgique</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -3267,15 +3319,15 @@
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>2,54</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
@@ -3283,6 +3335,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3293,12 +3346,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>785072</t>
+          <t>116621</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>C10</t>
+          <t>C44</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3308,7 +3361,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Fraises Gariguette / Barquettes 8x250 g / Cat. I / France</t>
+          <t>Poivrons Oranges / Vrac 5 kg / G-B (60-80 mm) / Cat. I / Pays-Bas</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -3325,15 +3378,15 @@
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr">
         <is>
-          <t>1,59</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
@@ -3341,6 +3394,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3351,7 +3405,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>100903</t>
+          <t>116631</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -3366,7 +3420,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Champignon blanc (pied coupé) / Vrac 3 kg / Cat. I / Pologne</t>
+          <t>Tomates Allongées / Roma / Vrac 6 kg / G / 8 (67-82 mm) / Cat. I / France</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -3383,15 +3437,15 @@
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>1,00</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
@@ -3399,6 +3453,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3409,7 +3464,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>100304</t>
+          <t>120230</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -3424,7 +3479,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Pêches plates Blanches / Vrac 5 kg / A (67-73 mm) / Cat. I / Espagne</t>
+          <t>Tomates Côtelées Noires / Vrac 3,5 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -3441,15 +3496,15 @@
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr">
         <is>
-          <t>2,65</t>
+          <t>1,70</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
@@ -3457,6 +3512,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3467,7 +3523,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>123223</t>
+          <t>103103</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -3482,7 +3538,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tomates Charnues / Vrac 7 kg / 8G (77-82 mm) / Cat. I / France</t>
+          <t>Tomates Jaunes Ananas / Vrac 3,5 kg / Cat. I / France</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -3499,15 +3555,15 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,70</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
@@ -3515,6 +3571,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3525,7 +3582,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>120237</t>
+          <t>099432</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -3540,7 +3597,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Tomates Marmande / Vrac 3,5 kg / Cat. I / France</t>
+          <t>Pomme Golden / 1 rang 4,5 kg / 15 (265-305 g) / Cat. I / France</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -3557,15 +3614,15 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>1,70</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
@@ -3573,6 +3630,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3583,12 +3641,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>121954</t>
+          <t>011529</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C35</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3598,7 +3656,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Concombres / Vrac 12 pcs - 6,6 kg / 12M (400-500 g) / Cat. I / Pays-Bas</t>
+          <t>Melons / Vrac 11 pcs - 13 kg / 11 (1150-1350 g) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -3615,15 +3673,15 @@
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr">
         <is>
-          <t>0,80</t>
+          <t>1,48</t>
         </is>
       </c>
       <c r="L55" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -3631,6 +3689,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3641,12 +3700,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>011265</t>
+          <t>031285</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>C44</t>
+          <t>C40</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3656,7 +3715,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Melons / Vrac 6 pcs - 5 kg / 6 pcs / Cat. I / Italie</t>
+          <t>Ananas Extra Sweet / Vrac 8 pcs - 12 kg / A8 (1500-1800 g) / Cat. I / Costa Rica</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -3673,15 +3732,15 @@
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
-          <t>2,76</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
@@ -3689,6 +3748,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3699,7 +3759,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>116632</t>
+          <t>102253</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -3714,7 +3774,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Tomates Allongées / Roma / Vrac 6 kg / Cat. I / Pays-Bas</t>
+          <t>Brocolis / Vrac 6 kg / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -3731,15 +3791,15 @@
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
@@ -3747,6 +3807,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3757,7 +3818,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>122546</t>
+          <t>099885</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -3772,7 +3833,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Tomates grappe / Vrac 10 kg / Cat. I / France</t>
+          <t>Abricot / Vrac 5 kg / A (40-44 mm) / Cat. I / France</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -3789,15 +3850,15 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
-          <t>1,38</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
@@ -3805,6 +3866,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3815,7 +3877,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>116976</t>
+          <t>116209</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -3830,7 +3892,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Poivrons longs verts Corne de Boeuf / Vrac 5 kg / Cat. I / Maroc</t>
+          <t>Asperges blanches / Vrac 5 kg / &gt;22 mm / Cat. I / France</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -3847,15 +3909,15 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
-          <t>1,48</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
@@ -3863,6 +3925,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3873,7 +3936,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>120956</t>
+          <t>011437</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -3888,7 +3951,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Poivrons Rouges / Vrac 5 kg / GG-B (80-100 mm) / Cat. I / Espagne</t>
+          <t>Melons / Vrac 15 pcs - 11 kg / 15L (650-800 g) / Cat. I / Espagne</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -3905,15 +3968,15 @@
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
-          <t>2,70</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -3921,6 +3984,7 @@
           <t>Ok</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3931,7 +3995,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>120958</t>
+          <t>725850</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -3946,7 +4010,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Poivrons Verts / Vrac 5 kg / GG-B (80-100 mm) / Cat. I / Belgique</t>
+          <t>Asperges vertes / Vrac 5 kg / 16-22 mm / Cat. I / France</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -3963,15 +4027,15 @@
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>11,13</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>220524</t>
+          <t>270524</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
@@ -3979,702 +4043,7 @@
           <t>Ok</t>
         </is>
       </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>961</v>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>099432</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>774</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Pomme Golden / 1 rang 4,5 kg / 15 (265-305 g) / Cat. I / France</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>MEYER GROUP</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>373721</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>1,70</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>8</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>220524</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>961</v>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>559307</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>C35</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>774</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Cerises / Barquettes 10x500 g / Cat. I / France</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>MEYER GROUP</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>373721</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>3,71</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>2</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>220524</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>961</v>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>103232</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>774</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Cerises Burlat / Vrac 5 kg / 20-22 mm / Cat. I / France</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>MEYER GROUP</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>373721</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>7,42</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>220524</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>961</v>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>102151</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>774</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Pêches Blanches / Plateau 4,5 kg / A 26 / Cat. I / Espagne</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>MEYER GROUP</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>373721</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>2,54</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>6</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>220524</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>961</v>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>099702</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>774</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Pêches Jaunes / Vrac 4 kg / B (61-67 mm) / Cat. I / Espagne</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>MEYER GROUP</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>373721</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>6</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>220524</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>961</v>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>120230</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>774</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Tomates Côtelées Noires / Vrac 3,5 kg / Cat. I / France</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>MEYER GROUP</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>373721</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>2,33</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>5</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>220524</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>961</v>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>116648</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>774</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Tomates Mélangées / Vrac 3,5 kg / Cat. I / France</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>MEYER GROUP</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>373721</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>2,33</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>6</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>220524</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>961</v>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>110726</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>774</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Abricot / Vrac 5 kg / AA (45-49 mm) / Cat. I / Espagne</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>MEYER GROUP</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>373721</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>1,70</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>6</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>220524</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>961</v>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>136825</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>774</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Kiwi Jaunes / Vrac 52 pcs - 5,7 kg / 33 (85-95g) / Cat. I / Nouvelle-Zélande</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>MEYER GROUP</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>373721</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>3</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>220524</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>961</v>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>101913</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>774</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Poivrons Jaunes / Vrac 5 kg / GG-A (90-110 mm) / Cat. I / Espagne</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>MEYER GROUP</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>373721</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>2,76</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>2</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>220524</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>961</v>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>077433</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>774</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Poires Conférence / Vrac 4,5 kg / 75-80 mm / Cat. I / Belgique</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>MEYER GROUP</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>373721</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>2,01</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>8</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>220524</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>961</v>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>753913</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>C44</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>774</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Poireau / Vrac 5 kg / Cat. I / France</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>MEYER GROUP</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>373721</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>2,76</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>4</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>220524</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Ok</t>
-        </is>
-      </c>
+      <c r="O61" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
